--- a/单塔单扇换扇数据.xlsx
+++ b/单塔单扇换扇数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/单塔单扇换扇测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB429CA-EE3C-DE4C-AB72-B0FE10905377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12641CC-5572-7E40-9BB0-870F37947B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>9RA12038</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,74 @@
   </si>
   <si>
     <t>GT-Low3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿华12025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振华飓风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP12E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT2150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P12E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12x25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12x25超压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P12ProCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9RA12025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JC12025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风尊T30CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9RA12038复测1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9RA12038另一把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK12B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,15 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB0588B-AFBD-FA42-81EF-35400B7F8FED}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BD4" sqref="BD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:56">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +566,76 @@
         <v>10</v>
       </c>
       <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD1" s="1"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:56">
       <c r="A2">
         <v>63.6</v>
       </c>
@@ -566,8 +702,110 @@
       <c r="V2">
         <v>78</v>
       </c>
+      <c r="W2">
+        <v>45.1</v>
+      </c>
+      <c r="X2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="Y2">
+        <v>59.5</v>
+      </c>
+      <c r="Z2">
+        <v>77</v>
+      </c>
+      <c r="AA2">
+        <v>54.1</v>
+      </c>
+      <c r="AB2">
+        <v>77.5</v>
+      </c>
+      <c r="AC2">
+        <v>52.3</v>
+      </c>
+      <c r="AD2">
+        <v>78</v>
+      </c>
+      <c r="AE2">
+        <v>53.5</v>
+      </c>
+      <c r="AF2">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AG2">
+        <v>41.6</v>
+      </c>
+      <c r="AH2">
+        <v>80.8</v>
+      </c>
+      <c r="AI2">
+        <v>56</v>
+      </c>
+      <c r="AJ2">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AK2">
+        <v>45.1</v>
+      </c>
+      <c r="AL2">
+        <v>79.8</v>
+      </c>
+      <c r="AM2">
+        <v>49.5</v>
+      </c>
+      <c r="AN2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AO2">
+        <v>56.7</v>
+      </c>
+      <c r="AP2">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="AQ2">
+        <v>55.2</v>
+      </c>
+      <c r="AR2">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="AS2">
+        <v>52.5</v>
+      </c>
+      <c r="AT2">
+        <v>78</v>
+      </c>
+      <c r="AU2">
+        <v>50.3</v>
+      </c>
+      <c r="AV2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AW2">
+        <v>46.9</v>
+      </c>
+      <c r="AX2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AY2">
+        <v>63.5</v>
+      </c>
+      <c r="AZ2">
+        <v>76</v>
+      </c>
+      <c r="BA2">
+        <v>63.3</v>
+      </c>
+      <c r="BB2">
+        <v>76</v>
+      </c>
+      <c r="BC2">
+        <v>44.5</v>
+      </c>
+      <c r="BD2">
+        <v>79.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:56">
       <c r="A3">
         <v>60.8</v>
       </c>
@@ -634,8 +872,110 @@
       <c r="V3">
         <v>78.3</v>
       </c>
+      <c r="W3">
+        <v>41.4</v>
+      </c>
+      <c r="X3">
+        <v>80.5</v>
+      </c>
+      <c r="Y3">
+        <v>56.4</v>
+      </c>
+      <c r="Z3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AA3">
+        <v>48.1</v>
+      </c>
+      <c r="AB3">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AC3">
+        <v>45.4</v>
+      </c>
+      <c r="AD3">
+        <v>80.2</v>
+      </c>
+      <c r="AE3">
+        <v>48.2</v>
+      </c>
+      <c r="AF3">
+        <v>78.8</v>
+      </c>
+      <c r="AG3">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AH3">
+        <v>82.5</v>
+      </c>
+      <c r="AI3">
+        <v>50.4</v>
+      </c>
+      <c r="AJ3">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="AK3">
+        <v>41.3</v>
+      </c>
+      <c r="AL3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="AM3">
+        <v>44.3</v>
+      </c>
+      <c r="AN3">
+        <v>80</v>
+      </c>
+      <c r="AO3">
+        <v>53</v>
+      </c>
+      <c r="AP3">
+        <v>77.3</v>
+      </c>
+      <c r="AQ3">
+        <v>49.7</v>
+      </c>
+      <c r="AR3">
+        <v>78.2</v>
+      </c>
+      <c r="AS3">
+        <v>48.1</v>
+      </c>
+      <c r="AT3">
+        <v>79.5</v>
+      </c>
+      <c r="AU3">
+        <v>46</v>
+      </c>
+      <c r="AV3">
+        <v>79.2</v>
+      </c>
+      <c r="AW3">
+        <v>43.6</v>
+      </c>
+      <c r="AX3">
+        <v>80.3</v>
+      </c>
+      <c r="AY3">
+        <v>54.6</v>
+      </c>
+      <c r="AZ3">
+        <v>78</v>
+      </c>
+      <c r="BA3">
+        <v>60</v>
+      </c>
+      <c r="BB3">
+        <v>76.5</v>
+      </c>
+      <c r="BC3">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BD3">
+        <v>80.900000000000006</v>
+      </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:56">
       <c r="A4">
         <v>55.8</v>
       </c>
@@ -690,8 +1030,104 @@
       <c r="V4">
         <v>79</v>
       </c>
+      <c r="W4">
+        <v>40</v>
+      </c>
+      <c r="X4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="Y4">
+        <v>51.9</v>
+      </c>
+      <c r="Z4">
+        <v>78.3</v>
+      </c>
+      <c r="AA4">
+        <v>41.3</v>
+      </c>
+      <c r="AB4">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AC4">
+        <v>39.4</v>
+      </c>
+      <c r="AD4">
+        <v>82.7</v>
+      </c>
+      <c r="AE4">
+        <v>42.4</v>
+      </c>
+      <c r="AF4">
+        <v>80.7</v>
+      </c>
+      <c r="AI4">
+        <v>48.8</v>
+      </c>
+      <c r="AJ4">
+        <v>78.8</v>
+      </c>
+      <c r="AK4">
+        <v>38</v>
+      </c>
+      <c r="AL4">
+        <v>82.8</v>
+      </c>
+      <c r="AM4">
+        <v>40</v>
+      </c>
+      <c r="AN4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="AO4">
+        <v>48.7</v>
+      </c>
+      <c r="AP4">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AQ4">
+        <v>43.2</v>
+      </c>
+      <c r="AR4">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AS4">
+        <v>41.1</v>
+      </c>
+      <c r="AT4">
+        <v>81.7</v>
+      </c>
+      <c r="AU4">
+        <v>40</v>
+      </c>
+      <c r="AV4">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AW4">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="AX4">
+        <v>82.3</v>
+      </c>
+      <c r="AY4">
+        <v>48.8</v>
+      </c>
+      <c r="AZ4">
+        <v>79</v>
+      </c>
+      <c r="BA4">
+        <v>55</v>
+      </c>
+      <c r="BB4">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="BC4">
+        <v>38.5</v>
+      </c>
+      <c r="BD4">
+        <v>81.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:56">
       <c r="A5">
         <v>50.7</v>
       </c>
@@ -734,8 +1170,38 @@
       <c r="V5">
         <v>80.599999999999994</v>
       </c>
+      <c r="Y5">
+        <v>45.3</v>
+      </c>
+      <c r="Z5">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="AI5">
+        <v>41.6</v>
+      </c>
+      <c r="AJ5">
+        <v>80.8</v>
+      </c>
+      <c r="AO5">
+        <v>43.4</v>
+      </c>
+      <c r="AP5">
+        <v>80</v>
+      </c>
+      <c r="AY5">
+        <v>46.7</v>
+      </c>
+      <c r="AZ5">
+        <v>79.2</v>
+      </c>
+      <c r="BA5">
+        <v>48.2</v>
+      </c>
+      <c r="BB5">
+        <v>79</v>
+      </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:56">
       <c r="A6">
         <v>43.7</v>
       </c>
@@ -748,8 +1214,20 @@
       <c r="L6">
         <v>82.7</v>
       </c>
+      <c r="Y6">
+        <v>40.4</v>
+      </c>
+      <c r="Z6">
+        <v>81.7</v>
+      </c>
+      <c r="AY6">
+        <v>41.2</v>
+      </c>
+      <c r="AZ6">
+        <v>81.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:56">
       <c r="A7">
         <v>37</v>
       </c>
@@ -758,18 +1236,35 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
+  <mergeCells count="28">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/单塔单扇换扇数据.xlsx
+++ b/单塔单扇换扇数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/单塔单扇换扇测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12641CC-5572-7E40-9BB0-870F37947B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8F7DAC-57FA-014D-A10F-59AE275E127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>9RA12038</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,34 @@
   </si>
   <si>
     <t>AK12B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿华复测1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9RA12038复测2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK700原扇复测1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9WPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK700原扇复测2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK700原扇复测3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT3600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,15 +541,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB0588B-AFBD-FA42-81EF-35400B7F8FED}">
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BR7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BD4" sqref="BD4"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BR4" sqref="BR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:70">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,15 +655,43 @@
       </c>
       <c r="AZ1" s="1"/>
       <c r="BA1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB1" s="1"/>
       <c r="BC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="BD1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR1" s="1"/>
     </row>
-    <row r="2" spans="1:56">
+    <row r="2" spans="1:70">
       <c r="A2">
         <v>63.6</v>
       </c>
@@ -787,25 +843,67 @@
         <v>79.400000000000006</v>
       </c>
       <c r="AY2">
+        <v>63.6</v>
+      </c>
+      <c r="AZ2">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="BA2">
         <v>63.5</v>
-      </c>
-      <c r="AZ2">
-        <v>76</v>
-      </c>
-      <c r="BA2">
-        <v>63.3</v>
       </c>
       <c r="BB2">
         <v>76</v>
       </c>
       <c r="BC2">
+        <v>63.3</v>
+      </c>
+      <c r="BD2">
+        <v>76</v>
+      </c>
+      <c r="BE2">
         <v>44.5</v>
       </c>
-      <c r="BD2">
+      <c r="BF2">
         <v>79.8</v>
       </c>
+      <c r="BG2">
+        <v>47.4</v>
+      </c>
+      <c r="BH2">
+        <v>78.5</v>
+      </c>
+      <c r="BI2">
+        <v>47.5</v>
+      </c>
+      <c r="BJ2">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="BK2">
+        <v>47.3</v>
+      </c>
+      <c r="BL2">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="BM2">
+        <v>45.7</v>
+      </c>
+      <c r="BN2">
+        <v>79.2</v>
+      </c>
+      <c r="BO2">
+        <v>65.2</v>
+      </c>
+      <c r="BP2">
+        <v>76</v>
+      </c>
+      <c r="BQ2">
+        <v>54.3</v>
+      </c>
+      <c r="BR2">
+        <v>77.3</v>
+      </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:70">
       <c r="A3">
         <v>60.8</v>
       </c>
@@ -956,26 +1054,62 @@
       <c r="AX3">
         <v>80.3</v>
       </c>
-      <c r="AY3">
+      <c r="BA3">
         <v>54.6</v>
       </c>
-      <c r="AZ3">
+      <c r="BB3">
         <v>78</v>
       </c>
-      <c r="BA3">
+      <c r="BC3">
         <v>60</v>
       </c>
-      <c r="BB3">
+      <c r="BD3">
         <v>76.5</v>
       </c>
-      <c r="BC3">
+      <c r="BE3">
         <v>40.299999999999997</v>
       </c>
-      <c r="BD3">
+      <c r="BF3">
         <v>80.900000000000006</v>
       </c>
+      <c r="BG3">
+        <v>44.3</v>
+      </c>
+      <c r="BH3">
+        <v>79</v>
+      </c>
+      <c r="BI3">
+        <v>43</v>
+      </c>
+      <c r="BJ3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="BK3">
+        <v>42.1</v>
+      </c>
+      <c r="BL3">
+        <v>79.7</v>
+      </c>
+      <c r="BM3">
+        <v>42</v>
+      </c>
+      <c r="BN3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="BO3">
+        <v>61.5</v>
+      </c>
+      <c r="BP3">
+        <v>76.2</v>
+      </c>
+      <c r="BQ3">
+        <v>50.4</v>
+      </c>
+      <c r="BR3">
+        <v>78.599999999999994</v>
+      </c>
     </row>
-    <row r="4" spans="1:56">
+    <row r="4" spans="1:70">
       <c r="A4">
         <v>55.8</v>
       </c>
@@ -1108,26 +1242,38 @@
       <c r="AX4">
         <v>82.3</v>
       </c>
-      <c r="AY4">
+      <c r="BA4">
         <v>48.8</v>
       </c>
-      <c r="AZ4">
+      <c r="BB4">
         <v>79</v>
       </c>
-      <c r="BA4">
+      <c r="BC4">
         <v>55</v>
       </c>
-      <c r="BB4">
+      <c r="BD4">
         <v>77.400000000000006</v>
       </c>
-      <c r="BC4">
+      <c r="BE4">
         <v>38.5</v>
       </c>
-      <c r="BD4">
+      <c r="BF4">
         <v>81.5</v>
       </c>
+      <c r="BG4">
+        <v>40.5</v>
+      </c>
+      <c r="BH4">
+        <v>80.2</v>
+      </c>
+      <c r="BO4">
+        <v>56.3</v>
+      </c>
+      <c r="BP4">
+        <v>77.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:70">
       <c r="A5">
         <v>50.7</v>
       </c>
@@ -1188,20 +1334,26 @@
       <c r="AP5">
         <v>80</v>
       </c>
-      <c r="AY5">
+      <c r="BA5">
         <v>46.7</v>
       </c>
-      <c r="AZ5">
+      <c r="BB5">
         <v>79.2</v>
       </c>
-      <c r="BA5">
+      <c r="BC5">
         <v>48.2</v>
       </c>
-      <c r="BB5">
+      <c r="BD5">
         <v>79</v>
       </c>
+      <c r="BO5">
+        <v>43.4</v>
+      </c>
+      <c r="BP5">
+        <v>79.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:56">
+    <row r="6" spans="1:70">
       <c r="A6">
         <v>43.7</v>
       </c>
@@ -1220,14 +1372,14 @@
       <c r="Z6">
         <v>81.7</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>41.2</v>
       </c>
-      <c r="AZ6">
+      <c r="BB6">
         <v>81.7</v>
       </c>
     </row>
-    <row r="7" spans="1:56">
+    <row r="7" spans="1:70">
       <c r="A7">
         <v>37</v>
       </c>
@@ -1236,12 +1388,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="35">
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BK1:BL1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AY1:AZ1"/>
     <mergeCell ref="BA1:BB1"/>
     <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>

--- a/单塔单扇换扇数据.xlsx
+++ b/单塔单扇换扇数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/单塔单扇换扇测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8F7DAC-57FA-014D-A10F-59AE275E127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A1BF0E-7F97-1E4D-966B-8AF936AB26D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>9RA12038</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,10 @@
   </si>
   <si>
     <t>GT3600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT3000复测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB0588B-AFBD-FA42-81EF-35400B7F8FED}">
-  <dimension ref="A1:BR7"/>
+  <dimension ref="A1:BT7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BR4" sqref="BR4"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BT3" sqref="BT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:72">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +611,7 @@
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1" t="s">
@@ -690,8 +694,12 @@
         <v>34</v>
       </c>
       <c r="BR1" s="1"/>
+      <c r="BS1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT1" s="1"/>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:72">
       <c r="A2">
         <v>63.6</v>
       </c>
@@ -902,8 +910,14 @@
       <c r="BR2">
         <v>77.3</v>
       </c>
+      <c r="BS2">
+        <v>45.2</v>
+      </c>
+      <c r="BT2">
+        <v>79.3</v>
+      </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:72">
       <c r="A3">
         <v>60.8</v>
       </c>
@@ -1108,8 +1122,14 @@
       <c r="BR3">
         <v>78.599999999999994</v>
       </c>
+      <c r="BS3">
+        <v>43</v>
+      </c>
+      <c r="BT3">
+        <v>80.2</v>
+      </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:72">
       <c r="A4">
         <v>55.8</v>
       </c>
@@ -1272,8 +1292,14 @@
       <c r="BP4">
         <v>77.5</v>
       </c>
+      <c r="BS4">
+        <v>41.2</v>
+      </c>
+      <c r="BT4">
+        <v>81.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:72">
       <c r="A5">
         <v>50.7</v>
       </c>
@@ -1353,7 +1379,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:72">
       <c r="A6">
         <v>43.7</v>
       </c>
@@ -1379,7 +1405,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:72">
       <c r="A7">
         <v>37</v>
       </c>
@@ -1388,9 +1414,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="BO1:BP1"/>
     <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="BS1:BT1"/>
     <mergeCell ref="BM1:BN1"/>
     <mergeCell ref="AY1:AZ1"/>
     <mergeCell ref="BG1:BH1"/>

--- a/单塔单扇换扇数据.xlsx
+++ b/单塔单扇换扇数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/单塔单扇换扇测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A1BF0E-7F97-1E4D-966B-8AF936AB26D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B677DBE-6CF8-E240-BCD8-6DE66A22E455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
+    <workbookView xWindow="8380" yWindow="13700" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>9RA12038</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>GT3000复测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT-Low3000复测1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫比乌斯复测1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK700原扇复测4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,15 +557,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB0588B-AFBD-FA42-81EF-35400B7F8FED}">
-  <dimension ref="A1:BT7"/>
+  <dimension ref="A1:BZ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="BT3" sqref="BT3"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="BX3" sqref="BX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:72">
+    <row r="1" spans="1:78">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,8 +710,20 @@
         <v>14</v>
       </c>
       <c r="BT1" s="1"/>
+      <c r="BU1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ1" s="1"/>
     </row>
-    <row r="2" spans="1:72">
+    <row r="2" spans="1:78">
       <c r="A2">
         <v>63.6</v>
       </c>
@@ -916,8 +940,26 @@
       <c r="BT2">
         <v>79.3</v>
       </c>
+      <c r="BU2">
+        <v>53</v>
+      </c>
+      <c r="BV2">
+        <v>78</v>
+      </c>
+      <c r="BW2">
+        <v>41.2</v>
+      </c>
+      <c r="BX2">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="BY2">
+        <v>47.5</v>
+      </c>
+      <c r="BZ2">
+        <v>78.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:78">
       <c r="A3">
         <v>60.8</v>
       </c>
@@ -1128,8 +1170,26 @@
       <c r="BT3">
         <v>80.2</v>
       </c>
+      <c r="BU3">
+        <v>50.8</v>
+      </c>
+      <c r="BV3">
+        <v>78.2</v>
+      </c>
+      <c r="BW3">
+        <v>38</v>
+      </c>
+      <c r="BX3">
+        <v>84</v>
+      </c>
+      <c r="BY3">
+        <v>44</v>
+      </c>
+      <c r="BZ3">
+        <v>79.099999999999994</v>
+      </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:78">
       <c r="A4">
         <v>55.8</v>
       </c>
@@ -1298,8 +1358,20 @@
       <c r="BT4">
         <v>81.2</v>
       </c>
+      <c r="BU4">
+        <v>46.3</v>
+      </c>
+      <c r="BV4">
+        <v>79.2</v>
+      </c>
+      <c r="BY4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BZ4">
+        <v>80.599999999999994</v>
+      </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:78">
       <c r="A5">
         <v>50.7</v>
       </c>
@@ -1379,7 +1451,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:78">
       <c r="A6">
         <v>43.7</v>
       </c>
@@ -1405,7 +1477,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:78">
       <c r="A7">
         <v>37</v>
       </c>
@@ -1414,25 +1486,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BQ1:BR1"/>
-    <mergeCell ref="BS1:BT1"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BK1:BL1"/>
+  <mergeCells count="39">
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="BA1:BB1"/>
     <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -1444,13 +1515,17 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="BS1:BT1"/>
+    <mergeCell ref="BU1:BV1"/>
+    <mergeCell ref="BW1:BX1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/单塔单扇换扇数据.xlsx
+++ b/单塔单扇换扇数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/单塔单扇换扇测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B677DBE-6CF8-E240-BCD8-6DE66A22E455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C9145F-5C2B-4949-9AA8-AF796082C13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="13700" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
+    <workbookView xWindow="4900" yWindow="9820" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>9RA12038</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鸿华复测1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9RA12038复测2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,14 +174,6 @@
   </si>
   <si>
     <t>GT3000复测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GT-Low3000复测1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫比乌斯复测1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -557,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB0588B-AFBD-FA42-81EF-35400B7F8FED}">
-  <dimension ref="A1:BZ7"/>
+  <dimension ref="A1:BT7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BX3" sqref="BX3"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BM2" sqref="BM1:BN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:78">
+    <row r="1" spans="1:72">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +611,7 @@
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1" t="s">
@@ -671,7 +659,7 @@
       </c>
       <c r="AZ1" s="1"/>
       <c r="BA1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB1" s="1"/>
       <c r="BC1" s="1" t="s">
@@ -683,47 +671,35 @@
       </c>
       <c r="BF1" s="1"/>
       <c r="BG1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BH1" s="1"/>
       <c r="BI1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BL1" s="1"/>
       <c r="BM1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BN1" s="1"/>
       <c r="BO1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="BT1" s="1"/>
-      <c r="BU1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BZ1" s="1"/>
     </row>
-    <row r="2" spans="1:78">
+    <row r="2" spans="1:72">
       <c r="A2">
         <v>63.6</v>
       </c>
@@ -731,10 +707,10 @@
         <v>75.900000000000006</v>
       </c>
       <c r="C2">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="D2">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>41.8</v>
@@ -791,10 +767,10 @@
         <v>78</v>
       </c>
       <c r="W2">
-        <v>45.1</v>
+        <v>45.7</v>
       </c>
       <c r="X2">
-        <v>79.400000000000006</v>
+        <v>79.2</v>
       </c>
       <c r="Y2">
         <v>59.5</v>
@@ -917,49 +893,31 @@
         <v>78.400000000000006</v>
       </c>
       <c r="BM2">
-        <v>45.7</v>
+        <v>65.2</v>
       </c>
       <c r="BN2">
-        <v>79.2</v>
+        <v>76</v>
       </c>
       <c r="BO2">
-        <v>65.2</v>
+        <v>54.3</v>
       </c>
       <c r="BP2">
-        <v>76</v>
+        <v>77.3</v>
       </c>
       <c r="BQ2">
-        <v>54.3</v>
+        <v>45.2</v>
       </c>
       <c r="BR2">
-        <v>77.3</v>
+        <v>79.3</v>
       </c>
       <c r="BS2">
-        <v>45.2</v>
+        <v>47.5</v>
       </c>
       <c r="BT2">
-        <v>79.3</v>
-      </c>
-      <c r="BU2">
-        <v>53</v>
-      </c>
-      <c r="BV2">
-        <v>78</v>
-      </c>
-      <c r="BW2">
-        <v>41.2</v>
-      </c>
-      <c r="BX2">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="BY2">
-        <v>47.5</v>
-      </c>
-      <c r="BZ2">
         <v>78.2</v>
       </c>
     </row>
-    <row r="3" spans="1:78">
+    <row r="3" spans="1:72">
       <c r="A3">
         <v>60.8</v>
       </c>
@@ -967,10 +925,10 @@
         <v>76.400000000000006</v>
       </c>
       <c r="C3">
-        <v>36.9</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="D3">
-        <v>86.4</v>
+        <v>84.9</v>
       </c>
       <c r="E3">
         <v>38.5</v>
@@ -1021,7 +979,7 @@
         <v>76.7</v>
       </c>
       <c r="U3">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="V3">
         <v>78.3</v>
@@ -1147,49 +1105,31 @@
         <v>79.7</v>
       </c>
       <c r="BM3">
-        <v>42</v>
+        <v>61.5</v>
       </c>
       <c r="BN3">
-        <v>80.400000000000006</v>
+        <v>76.2</v>
       </c>
       <c r="BO3">
-        <v>61.5</v>
+        <v>50.4</v>
       </c>
       <c r="BP3">
-        <v>76.2</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="BQ3">
-        <v>50.4</v>
+        <v>43</v>
       </c>
       <c r="BR3">
-        <v>78.599999999999994</v>
+        <v>80.2</v>
       </c>
       <c r="BS3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BT3">
-        <v>80.2</v>
-      </c>
-      <c r="BU3">
-        <v>50.8</v>
-      </c>
-      <c r="BV3">
-        <v>78.2</v>
-      </c>
-      <c r="BW3">
-        <v>38</v>
-      </c>
-      <c r="BX3">
-        <v>84</v>
-      </c>
-      <c r="BY3">
-        <v>44</v>
-      </c>
-      <c r="BZ3">
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:78">
+    <row r="4" spans="1:72">
       <c r="A4">
         <v>55.8</v>
       </c>
@@ -1242,7 +1182,7 @@
         <v>49</v>
       </c>
       <c r="V4">
-        <v>79</v>
+        <v>78.7</v>
       </c>
       <c r="W4">
         <v>40</v>
@@ -1346,32 +1286,26 @@
       <c r="BH4">
         <v>80.2</v>
       </c>
-      <c r="BO4">
+      <c r="BM4">
         <v>56.3</v>
       </c>
-      <c r="BP4">
+      <c r="BN4">
         <v>77.5</v>
       </c>
+      <c r="BQ4">
+        <v>41.2</v>
+      </c>
+      <c r="BR4">
+        <v>81.2</v>
+      </c>
       <c r="BS4">
-        <v>41.2</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="BT4">
-        <v>81.2</v>
-      </c>
-      <c r="BU4">
-        <v>46.3</v>
-      </c>
-      <c r="BV4">
-        <v>79.2</v>
-      </c>
-      <c r="BY4">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="BZ4">
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:78">
+    <row r="5" spans="1:72">
       <c r="A5">
         <v>50.7</v>
       </c>
@@ -1444,14 +1378,14 @@
       <c r="BD5">
         <v>79</v>
       </c>
-      <c r="BO5">
+      <c r="BM5">
         <v>43.4</v>
       </c>
-      <c r="BP5">
+      <c r="BN5">
         <v>79.8</v>
       </c>
     </row>
-    <row r="6" spans="1:78">
+    <row r="6" spans="1:72">
       <c r="A6">
         <v>43.7</v>
       </c>
@@ -1477,7 +1411,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="7" spans="1:78">
+    <row r="7" spans="1:72">
       <c r="A7">
         <v>37</v>
       </c>
@@ -1486,7 +1420,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="36">
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
@@ -1515,17 +1449,14 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="BM1:BN1"/>
     <mergeCell ref="AY1:AZ1"/>
     <mergeCell ref="BG1:BH1"/>
     <mergeCell ref="BI1:BJ1"/>
     <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="BS1:BT1"/>
+    <mergeCell ref="BM1:BN1"/>
     <mergeCell ref="BO1:BP1"/>
     <mergeCell ref="BQ1:BR1"/>
-    <mergeCell ref="BS1:BT1"/>
-    <mergeCell ref="BU1:BV1"/>
-    <mergeCell ref="BW1:BX1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/单塔单扇换扇数据.xlsx
+++ b/单塔单扇换扇数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/单塔单扇换扇测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C9145F-5C2B-4949-9AA8-AF796082C13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828B4D09-408D-5B46-89EC-3C2CBB5E124C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="9820" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
+    <workbookView xWindow="3100" yWindow="6280" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>9RA12038</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9RA12038复测2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AK700原扇复测1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +166,6 @@
   </si>
   <si>
     <t>GT3600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GT3000复测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -545,15 +537,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB0588B-AFBD-FA42-81EF-35400B7F8FED}">
-  <dimension ref="A1:BT7"/>
+  <dimension ref="A1:BP7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BM2" sqref="BM1:BN1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY1:AZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:72">
+    <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +603,7 @@
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1" t="s">
@@ -643,39 +635,39 @@
       </c>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX1" s="1"/>
       <c r="AY1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ1" s="1"/>
       <c r="BA1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB1" s="1"/>
       <c r="BC1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BF1" s="1"/>
       <c r="BG1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BH1" s="1"/>
       <c r="BI1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1" t="s">
@@ -683,23 +675,15 @@
       </c>
       <c r="BL1" s="1"/>
       <c r="BM1" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="BN1" s="1"/>
       <c r="BO1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BT1" s="1"/>
     </row>
-    <row r="2" spans="1:72">
+    <row r="2" spans="1:68">
       <c r="A2">
         <v>63.6</v>
       </c>
@@ -833,91 +817,79 @@
         <v>77.099999999999994</v>
       </c>
       <c r="AS2">
-        <v>52.5</v>
+        <v>50.3</v>
       </c>
       <c r="AT2">
-        <v>78</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="AU2">
-        <v>50.3</v>
+        <v>46.9</v>
       </c>
       <c r="AV2">
-        <v>78.099999999999994</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="AW2">
-        <v>46.9</v>
+        <v>63.6</v>
       </c>
       <c r="AX2">
-        <v>79.400000000000006</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="AY2">
-        <v>63.6</v>
+        <v>63.3</v>
       </c>
       <c r="AZ2">
-        <v>75.900000000000006</v>
+        <v>76</v>
       </c>
       <c r="BA2">
-        <v>63.5</v>
+        <v>44.5</v>
       </c>
       <c r="BB2">
+        <v>79.8</v>
+      </c>
+      <c r="BC2">
+        <v>47.4</v>
+      </c>
+      <c r="BD2">
+        <v>78.5</v>
+      </c>
+      <c r="BE2">
+        <v>47.5</v>
+      </c>
+      <c r="BF2">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="BG2">
+        <v>47.3</v>
+      </c>
+      <c r="BH2">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="BI2">
+        <v>65.2</v>
+      </c>
+      <c r="BJ2">
         <v>76</v>
       </c>
-      <c r="BC2">
-        <v>63.3</v>
-      </c>
-      <c r="BD2">
-        <v>76</v>
-      </c>
-      <c r="BE2">
-        <v>44.5</v>
-      </c>
-      <c r="BF2">
-        <v>79.8</v>
-      </c>
-      <c r="BG2">
-        <v>47.4</v>
-      </c>
-      <c r="BH2">
-        <v>78.5</v>
-      </c>
-      <c r="BI2">
+      <c r="BK2">
+        <v>54.3</v>
+      </c>
+      <c r="BL2">
+        <v>77.3</v>
+      </c>
+      <c r="BM2">
+        <v>45.2</v>
+      </c>
+      <c r="BN2">
+        <v>79.3</v>
+      </c>
+      <c r="BO2">
         <v>47.5</v>
       </c>
-      <c r="BJ2">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="BK2">
-        <v>47.3</v>
-      </c>
-      <c r="BL2">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="BM2">
-        <v>65.2</v>
-      </c>
-      <c r="BN2">
-        <v>76</v>
-      </c>
-      <c r="BO2">
-        <v>54.3</v>
-      </c>
       <c r="BP2">
-        <v>77.3</v>
-      </c>
-      <c r="BQ2">
-        <v>45.2</v>
-      </c>
-      <c r="BR2">
-        <v>79.3</v>
-      </c>
-      <c r="BS2">
-        <v>47.5</v>
-      </c>
-      <c r="BT2">
         <v>78.2</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:68">
       <c r="A3">
         <v>60.8</v>
       </c>
@@ -1051,85 +1023,73 @@
         <v>78.2</v>
       </c>
       <c r="AS3">
-        <v>48.1</v>
+        <v>46</v>
       </c>
       <c r="AT3">
-        <v>79.5</v>
+        <v>79.2</v>
       </c>
       <c r="AU3">
-        <v>46</v>
+        <v>43.6</v>
       </c>
       <c r="AV3">
-        <v>79.2</v>
-      </c>
-      <c r="AW3">
-        <v>43.6</v>
-      </c>
-      <c r="AX3">
         <v>80.3</v>
       </c>
+      <c r="AY3">
+        <v>60</v>
+      </c>
+      <c r="AZ3">
+        <v>76.5</v>
+      </c>
       <c r="BA3">
-        <v>54.6</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="BB3">
-        <v>78</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="BC3">
-        <v>60</v>
+        <v>44.3</v>
       </c>
       <c r="BD3">
-        <v>76.5</v>
+        <v>79</v>
       </c>
       <c r="BE3">
-        <v>40.299999999999997</v>
+        <v>43</v>
       </c>
       <c r="BF3">
-        <v>80.900000000000006</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="BG3">
-        <v>44.3</v>
+        <v>42.1</v>
       </c>
       <c r="BH3">
-        <v>79</v>
+        <v>79.7</v>
       </c>
       <c r="BI3">
+        <v>61.5</v>
+      </c>
+      <c r="BJ3">
+        <v>76.2</v>
+      </c>
+      <c r="BK3">
+        <v>50.4</v>
+      </c>
+      <c r="BL3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="BM3">
         <v>43</v>
       </c>
-      <c r="BJ3">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="BK3">
-        <v>42.1</v>
-      </c>
-      <c r="BL3">
-        <v>79.7</v>
-      </c>
-      <c r="BM3">
-        <v>61.5</v>
-      </c>
       <c r="BN3">
-        <v>76.2</v>
+        <v>80.2</v>
       </c>
       <c r="BO3">
-        <v>50.4</v>
+        <v>44</v>
       </c>
       <c r="BP3">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="BQ3">
-        <v>43</v>
-      </c>
-      <c r="BR3">
-        <v>80.2</v>
-      </c>
-      <c r="BS3">
-        <v>44</v>
-      </c>
-      <c r="BT3">
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:68">
       <c r="A4">
         <v>55.8</v>
       </c>
@@ -1245,67 +1205,55 @@
         <v>80.400000000000006</v>
       </c>
       <c r="AS4">
-        <v>41.1</v>
+        <v>40</v>
       </c>
       <c r="AT4">
-        <v>81.7</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="AU4">
-        <v>40</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="AV4">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="AW4">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="AX4">
         <v>82.3</v>
       </c>
+      <c r="AY4">
+        <v>55</v>
+      </c>
+      <c r="AZ4">
+        <v>77.400000000000006</v>
+      </c>
       <c r="BA4">
-        <v>48.8</v>
+        <v>38.5</v>
       </c>
       <c r="BB4">
-        <v>79</v>
+        <v>81.5</v>
       </c>
       <c r="BC4">
-        <v>55</v>
+        <v>40.5</v>
       </c>
       <c r="BD4">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="BE4">
-        <v>38.5</v>
-      </c>
-      <c r="BF4">
-        <v>81.5</v>
-      </c>
-      <c r="BG4">
-        <v>40.5</v>
-      </c>
-      <c r="BH4">
         <v>80.2</v>
       </c>
+      <c r="BI4">
+        <v>56.3</v>
+      </c>
+      <c r="BJ4">
+        <v>77.5</v>
+      </c>
       <c r="BM4">
-        <v>56.3</v>
+        <v>41.2</v>
       </c>
       <c r="BN4">
-        <v>77.5</v>
-      </c>
-      <c r="BQ4">
-        <v>41.2</v>
-      </c>
-      <c r="BR4">
         <v>81.2</v>
       </c>
-      <c r="BS4">
+      <c r="BO4">
         <v>40.299999999999997</v>
       </c>
-      <c r="BT4">
+      <c r="BP4">
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:68">
       <c r="A5">
         <v>50.7</v>
       </c>
@@ -1366,26 +1314,20 @@
       <c r="AP5">
         <v>80</v>
       </c>
-      <c r="BA5">
-        <v>46.7</v>
-      </c>
-      <c r="BB5">
-        <v>79.2</v>
-      </c>
-      <c r="BC5">
+      <c r="AY5">
         <v>48.2</v>
       </c>
-      <c r="BD5">
+      <c r="AZ5">
         <v>79</v>
       </c>
-      <c r="BM5">
+      <c r="BI5">
         <v>43.4</v>
       </c>
-      <c r="BN5">
+      <c r="BJ5">
         <v>79.8</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:68">
       <c r="A6">
         <v>43.7</v>
       </c>
@@ -1404,14 +1346,8 @@
       <c r="Z6">
         <v>81.7</v>
       </c>
-      <c r="BA6">
-        <v>41.2</v>
-      </c>
-      <c r="BB6">
-        <v>81.7</v>
-      </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:68">
       <c r="A7">
         <v>37</v>
       </c>
@@ -1420,8 +1356,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="AU1:AV1"/>
+  <mergeCells count="34">
+    <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
@@ -1434,10 +1370,9 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AY1:AZ1"/>
     <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -1448,15 +1383,14 @@
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
     <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BO1:BP1"/>
     <mergeCell ref="BI1:BJ1"/>
     <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BS1:BT1"/>
     <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BQ1:BR1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/单塔单扇换扇数据.xlsx
+++ b/单塔单扇换扇数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/单塔单扇换扇测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828B4D09-408D-5B46-89EC-3C2CBB5E124C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAA787E-2E36-314F-A1A1-7A339E5263EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="6280" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>9RA12038</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,14 +134,6 @@
   </si>
   <si>
     <t>SC12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9RA12038复测1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9RA12038另一把</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -537,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB0588B-AFBD-FA42-81EF-35400B7F8FED}">
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY1:AZ1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:64">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,39 +643,31 @@
       </c>
       <c r="AZ1" s="1"/>
       <c r="BA1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB1" s="1"/>
       <c r="BC1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BF1" s="1"/>
       <c r="BG1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BH1" s="1"/>
       <c r="BI1" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BL1" s="1"/>
-      <c r="BM1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BP1" s="1"/>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:64">
       <c r="A2">
         <v>63.6</v>
       </c>
@@ -829,67 +813,55 @@
         <v>79.400000000000006</v>
       </c>
       <c r="AW2">
-        <v>63.6</v>
+        <v>44.5</v>
       </c>
       <c r="AX2">
-        <v>75.900000000000006</v>
+        <v>79.8</v>
       </c>
       <c r="AY2">
-        <v>63.3</v>
+        <v>47.4</v>
       </c>
       <c r="AZ2">
+        <v>78.5</v>
+      </c>
+      <c r="BA2">
+        <v>47.5</v>
+      </c>
+      <c r="BB2">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="BC2">
+        <v>47.3</v>
+      </c>
+      <c r="BD2">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="BE2">
+        <v>65.2</v>
+      </c>
+      <c r="BF2">
         <v>76</v>
       </c>
-      <c r="BA2">
-        <v>44.5</v>
-      </c>
-      <c r="BB2">
-        <v>79.8</v>
-      </c>
-      <c r="BC2">
-        <v>47.4</v>
-      </c>
-      <c r="BD2">
-        <v>78.5</v>
-      </c>
-      <c r="BE2">
+      <c r="BG2">
+        <v>54.3</v>
+      </c>
+      <c r="BH2">
+        <v>77.3</v>
+      </c>
+      <c r="BI2">
+        <v>45.2</v>
+      </c>
+      <c r="BJ2">
+        <v>79.3</v>
+      </c>
+      <c r="BK2">
         <v>47.5</v>
       </c>
-      <c r="BF2">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="BG2">
-        <v>47.3</v>
-      </c>
-      <c r="BH2">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="BI2">
-        <v>65.2</v>
-      </c>
-      <c r="BJ2">
-        <v>76</v>
-      </c>
-      <c r="BK2">
-        <v>54.3</v>
-      </c>
       <c r="BL2">
-        <v>77.3</v>
-      </c>
-      <c r="BM2">
-        <v>45.2</v>
-      </c>
-      <c r="BN2">
-        <v>79.3</v>
-      </c>
-      <c r="BO2">
-        <v>47.5</v>
-      </c>
-      <c r="BP2">
         <v>78.2</v>
       </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:64">
       <c r="A3">
         <v>60.8</v>
       </c>
@@ -1034,62 +1006,56 @@
       <c r="AV3">
         <v>80.3</v>
       </c>
+      <c r="AW3">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="AX3">
+        <v>80.900000000000006</v>
+      </c>
       <c r="AY3">
-        <v>60</v>
+        <v>44.3</v>
       </c>
       <c r="AZ3">
-        <v>76.5</v>
+        <v>79</v>
       </c>
       <c r="BA3">
-        <v>40.299999999999997</v>
+        <v>43</v>
       </c>
       <c r="BB3">
-        <v>80.900000000000006</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="BC3">
-        <v>44.3</v>
+        <v>42.1</v>
       </c>
       <c r="BD3">
-        <v>79</v>
+        <v>79.7</v>
       </c>
       <c r="BE3">
+        <v>61.5</v>
+      </c>
+      <c r="BF3">
+        <v>76.2</v>
+      </c>
+      <c r="BG3">
+        <v>50.4</v>
+      </c>
+      <c r="BH3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="BI3">
         <v>43</v>
       </c>
-      <c r="BF3">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="BG3">
-        <v>42.1</v>
-      </c>
-      <c r="BH3">
-        <v>79.7</v>
-      </c>
-      <c r="BI3">
-        <v>61.5</v>
-      </c>
       <c r="BJ3">
-        <v>76.2</v>
+        <v>80.2</v>
       </c>
       <c r="BK3">
-        <v>50.4</v>
+        <v>44</v>
       </c>
       <c r="BL3">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="BM3">
-        <v>43</v>
-      </c>
-      <c r="BN3">
-        <v>80.2</v>
-      </c>
-      <c r="BO3">
-        <v>44</v>
-      </c>
-      <c r="BP3">
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:64">
       <c r="A4">
         <v>55.8</v>
       </c>
@@ -1216,44 +1182,38 @@
       <c r="AV4">
         <v>82.3</v>
       </c>
+      <c r="AW4">
+        <v>38.5</v>
+      </c>
+      <c r="AX4">
+        <v>81.5</v>
+      </c>
       <c r="AY4">
-        <v>55</v>
+        <v>40.5</v>
       </c>
       <c r="AZ4">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="BA4">
-        <v>38.5</v>
-      </c>
-      <c r="BB4">
-        <v>81.5</v>
-      </c>
-      <c r="BC4">
-        <v>40.5</v>
-      </c>
-      <c r="BD4">
         <v>80.2</v>
       </c>
+      <c r="BE4">
+        <v>56.3</v>
+      </c>
+      <c r="BF4">
+        <v>77.5</v>
+      </c>
       <c r="BI4">
-        <v>56.3</v>
+        <v>41.2</v>
       </c>
       <c r="BJ4">
-        <v>77.5</v>
-      </c>
-      <c r="BM4">
-        <v>41.2</v>
-      </c>
-      <c r="BN4">
         <v>81.2</v>
       </c>
-      <c r="BO4">
+      <c r="BK4">
         <v>40.299999999999997</v>
       </c>
-      <c r="BP4">
+      <c r="BL4">
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:64">
       <c r="A5">
         <v>50.7</v>
       </c>
@@ -1314,25 +1274,19 @@
       <c r="AP5">
         <v>80</v>
       </c>
-      <c r="AY5">
-        <v>48.2</v>
-      </c>
-      <c r="AZ5">
-        <v>79</v>
-      </c>
-      <c r="BI5">
+      <c r="BE5">
         <v>43.4</v>
       </c>
-      <c r="BJ5">
+      <c r="BF5">
         <v>79.8</v>
       </c>
     </row>
-    <row r="6" spans="1:68">
+    <row r="6" spans="1:64">
       <c r="A6">
         <v>43.7</v>
       </c>
       <c r="B6">
-        <v>80.5</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="K6">
         <v>39</v>
@@ -1347,7 +1301,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:64">
       <c r="A7">
         <v>37</v>
       </c>
@@ -1356,7 +1310,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="32">
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
@@ -1371,8 +1325,7 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -1383,14 +1336,13 @@
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
     <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BK1:BL1"/>
     <mergeCell ref="BE1:BF1"/>
     <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BO1:BP1"/>
     <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BM1:BN1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/单塔单扇换扇数据.xlsx
+++ b/单塔单扇换扇数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/单塔单扇换扇测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAA787E-2E36-314F-A1A1-7A339E5263EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E40211-D4BB-7D44-B633-A9DF51B510D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="6280" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
+    <workbookView xWindow="6120" yWindow="10740" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>9RA12038</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,27 +141,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AK700原扇复测1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9WPA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AK700原扇复测2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AK700原扇复测3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GT3600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AK700原扇复测4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,15 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB0588B-AFBD-FA42-81EF-35400B7F8FED}">
-  <dimension ref="A1:BL7"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE1:BF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:56">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,31 +627,15 @@
       </c>
       <c r="AZ1" s="1"/>
       <c r="BA1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB1" s="1"/>
       <c r="BC1" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="BD1" s="1"/>
-      <c r="BE1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BL1" s="1"/>
     </row>
-    <row r="2" spans="1:64">
+    <row r="2" spans="1:56">
       <c r="A2">
         <v>63.6</v>
       </c>
@@ -819,49 +787,25 @@
         <v>79.8</v>
       </c>
       <c r="AY2">
-        <v>47.4</v>
+        <v>65.2</v>
       </c>
       <c r="AZ2">
-        <v>78.5</v>
+        <v>76</v>
       </c>
       <c r="BA2">
-        <v>47.5</v>
+        <v>54.3</v>
       </c>
       <c r="BB2">
-        <v>78.599999999999994</v>
+        <v>77.3</v>
       </c>
       <c r="BC2">
-        <v>47.3</v>
+        <v>45.2</v>
       </c>
       <c r="BD2">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="BE2">
-        <v>65.2</v>
-      </c>
-      <c r="BF2">
-        <v>76</v>
-      </c>
-      <c r="BG2">
-        <v>54.3</v>
-      </c>
-      <c r="BH2">
-        <v>77.3</v>
-      </c>
-      <c r="BI2">
-        <v>45.2</v>
-      </c>
-      <c r="BJ2">
         <v>79.3</v>
       </c>
-      <c r="BK2">
-        <v>47.5</v>
-      </c>
-      <c r="BL2">
-        <v>78.2</v>
-      </c>
     </row>
-    <row r="3" spans="1:64">
+    <row r="3" spans="1:56">
       <c r="A3">
         <v>60.8</v>
       </c>
@@ -908,7 +852,7 @@
         <v>44.3</v>
       </c>
       <c r="P3">
-        <v>79.099999999999994</v>
+        <v>79</v>
       </c>
       <c r="Q3">
         <v>46.6</v>
@@ -1013,49 +957,25 @@
         <v>80.900000000000006</v>
       </c>
       <c r="AY3">
-        <v>44.3</v>
+        <v>61.5</v>
       </c>
       <c r="AZ3">
-        <v>79</v>
+        <v>76.2</v>
       </c>
       <c r="BA3">
+        <v>50.4</v>
+      </c>
+      <c r="BB3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="BC3">
         <v>43</v>
       </c>
-      <c r="BB3">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="BC3">
-        <v>42.1</v>
-      </c>
       <c r="BD3">
-        <v>79.7</v>
-      </c>
-      <c r="BE3">
-        <v>61.5</v>
-      </c>
-      <c r="BF3">
-        <v>76.2</v>
-      </c>
-      <c r="BG3">
-        <v>50.4</v>
-      </c>
-      <c r="BH3">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="BI3">
-        <v>43</v>
-      </c>
-      <c r="BJ3">
         <v>80.2</v>
       </c>
-      <c r="BK3">
-        <v>44</v>
-      </c>
-      <c r="BL3">
-        <v>79.099999999999994</v>
-      </c>
     </row>
-    <row r="4" spans="1:64">
+    <row r="4" spans="1:56">
       <c r="A4">
         <v>55.8</v>
       </c>
@@ -1087,10 +1007,10 @@
         <v>80.5</v>
       </c>
       <c r="O4">
-        <v>39.1</v>
+        <v>40.5</v>
       </c>
       <c r="P4">
-        <v>81.5</v>
+        <v>80.3</v>
       </c>
       <c r="Q4">
         <v>39.299999999999997</v>
@@ -1189,31 +1109,19 @@
         <v>81.5</v>
       </c>
       <c r="AY4">
-        <v>40.5</v>
+        <v>56.3</v>
       </c>
       <c r="AZ4">
-        <v>80.2</v>
-      </c>
-      <c r="BE4">
-        <v>56.3</v>
-      </c>
-      <c r="BF4">
         <v>77.5</v>
       </c>
-      <c r="BI4">
+      <c r="BC4">
         <v>41.2</v>
       </c>
-      <c r="BJ4">
+      <c r="BD4">
         <v>81.2</v>
       </c>
-      <c r="BK4">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="BL4">
-        <v>80.599999999999994</v>
-      </c>
     </row>
-    <row r="5" spans="1:64">
+    <row r="5" spans="1:56">
       <c r="A5">
         <v>50.7</v>
       </c>
@@ -1274,14 +1182,14 @@
       <c r="AP5">
         <v>80</v>
       </c>
-      <c r="BE5">
+      <c r="AY5">
         <v>43.4</v>
       </c>
-      <c r="BF5">
+      <c r="AZ5">
         <v>79.8</v>
       </c>
     </row>
-    <row r="6" spans="1:64">
+    <row r="6" spans="1:56">
       <c r="A6">
         <v>43.7</v>
       </c>
@@ -1301,7 +1209,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="7" spans="1:64">
+    <row r="7" spans="1:56">
       <c r="A7">
         <v>37</v>
       </c>
@@ -1310,7 +1218,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="28">
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
@@ -1339,10 +1247,6 @@
     <mergeCell ref="AY1:AZ1"/>
     <mergeCell ref="BA1:BB1"/>
     <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI1:BJ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/单塔单扇换扇数据.xlsx
+++ b/单塔单扇换扇数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/单塔单扇换扇测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E40211-D4BB-7D44-B633-A9DF51B510D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C73BC4-0521-BF42-85E0-E0D7BA9C64BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="10740" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
+    <workbookView xWindow="9980" yWindow="12520" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BE2" sqref="BE1:BF1048576"/>
+      <selection activeCell="AZ5" sqref="AZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -960,7 +960,7 @@
         <v>61.5</v>
       </c>
       <c r="AZ3">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="BA3">
         <v>50.4</v>

--- a/单塔单扇换扇数据.xlsx
+++ b/单塔单扇换扇数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/单塔单扇换扇测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C73BC4-0521-BF42-85E0-E0D7BA9C64BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918FDB75-CE37-F146-873E-A2DB41C73A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="12520" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +166,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -192,11 +200,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,722 +526,719 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB0588B-AFBD-FA42-81EF-35400B7F8FED}">
   <dimension ref="A1:BD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AZ5" sqref="AZ5"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY1:AZ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="56" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:56">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1" t="s">
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1" t="s">
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1" t="s">
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1" t="s">
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1" t="s">
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1" t="s">
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1" t="s">
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1" t="s">
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1" t="s">
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1" t="s">
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1" t="s">
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1" t="s">
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1" t="s">
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1" t="s">
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1" t="s">
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="BD1" s="1"/>
+      <c r="BD1" s="2"/>
     </row>
     <row r="2" spans="1:56">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>63.6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>75.900000000000006</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>41.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>81</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>41.8</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>81</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>55.1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>77.900000000000006</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>61.4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>76.400000000000006</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>58.4</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>76.900000000000006</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>54.5</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>77.900000000000006</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>47.7</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>78.3</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>49.7</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>78.5</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>60.3</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>76.3</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>53.5</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <v>78</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="1">
         <v>45.7</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="1">
         <v>79.2</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="1">
         <v>59.5</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="1">
         <v>77</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="1">
         <v>54.1</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="1">
         <v>77.5</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="1">
         <v>52.3</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="1">
         <v>78</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="1">
         <v>53.5</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="1">
         <v>77.400000000000006</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="1">
         <v>41.6</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="1">
         <v>80.8</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="1">
         <v>56</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="1">
         <v>77.400000000000006</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="1">
         <v>45.1</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="1">
         <v>79.8</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="1">
         <v>49.5</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="1">
         <v>78.099999999999994</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="1">
         <v>56.7</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="1">
         <v>76.900000000000006</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="1">
         <v>55.2</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="1">
         <v>77.099999999999994</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="1">
         <v>50.3</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="1">
         <v>78.099999999999994</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="1">
         <v>46.9</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="1">
         <v>79.400000000000006</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="1">
         <v>44.5</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="1">
         <v>79.8</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="1">
         <v>65.2</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="1">
         <v>76</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="1">
         <v>54.3</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="1">
         <v>77.3</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="1">
         <v>45.2</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" s="1">
         <v>79.3</v>
       </c>
     </row>
     <row r="3" spans="1:56">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>60.8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>76.400000000000006</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>37.200000000000003</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>84.9</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>38.5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>83</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>51.7</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>78.5</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>60</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>76.7</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>57</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>77.3</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>50</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>78.5</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>44.3</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>79</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>46.6</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>79.8</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>58.3</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>76.7</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>50.8</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>78.3</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>41.4</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>80.5</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="1">
         <v>56.4</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <v>77.400000000000006</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <v>48.1</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="1">
         <v>78.900000000000006</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="1">
         <v>45.4</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="1">
         <v>80.2</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="1">
         <v>48.2</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="1">
         <v>78.8</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="1">
         <v>38.700000000000003</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="1">
         <v>82.5</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="1">
         <v>50.4</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="1">
         <v>78.400000000000006</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="1">
         <v>41.3</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="1">
         <v>81.400000000000006</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="1">
         <v>44.3</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="1">
         <v>80</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="1">
         <v>53</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="1">
         <v>77.3</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="1">
         <v>49.7</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="1">
         <v>78.2</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="1">
         <v>46</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="1">
         <v>79.2</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="1">
         <v>43.6</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="1">
         <v>80.3</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="1">
         <v>40.299999999999997</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="1">
         <v>80.900000000000006</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="1">
         <v>61.5</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="1">
         <v>76.3</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="1">
         <v>50.4</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="1">
         <v>78.599999999999994</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="1">
         <v>43</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" s="1">
         <v>80.2</v>
       </c>
     </row>
     <row r="4" spans="1:56">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>55.8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>77.400000000000006</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>44.5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>80.3</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>52.2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>77.900000000000006</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>50.6</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>79</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>42.7</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>80.5</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>40.5</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>80.3</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>39.299999999999997</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>82.2</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>51.6</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>78</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>49</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="1">
         <v>78.7</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>40</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>81.400000000000006</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="1">
         <v>51.9</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="1">
         <v>78.3</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="1">
         <v>41.3</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="1">
         <v>81.099999999999994</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="1">
         <v>39.4</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="1">
         <v>82.7</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="1">
         <v>42.4</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="1">
         <v>80.7</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="1">
         <v>48.8</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="1">
         <v>78.8</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="1">
         <v>38</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="1">
         <v>82.8</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="1">
         <v>40</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="1">
         <v>81.400000000000006</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="1">
         <v>48.7</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="1">
         <v>78.099999999999994</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="1">
         <v>43.2</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="1">
         <v>80.400000000000006</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="1">
         <v>40</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="1">
         <v>81.599999999999994</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="1">
         <v>39.299999999999997</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="1">
         <v>82.3</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="1">
         <v>38.5</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="1">
         <v>81.5</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="1">
         <v>56.3</v>
       </c>
-      <c r="AZ4">
-        <v>77.5</v>
-      </c>
-      <c r="BC4">
+      <c r="AZ4" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="BC4" s="1">
         <v>41.2</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" s="1">
         <v>81.2</v>
       </c>
     </row>
     <row r="5" spans="1:56">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>50.7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>78.400000000000006</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>40.1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>81.7</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>43</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>80.7</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>46</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>80.599999999999994</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>41</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>81</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>43.3</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>80.2</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>43</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>80.599999999999994</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="1">
         <v>45.3</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <v>79.900000000000006</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="1">
         <v>41.6</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="1">
         <v>80.8</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="1">
         <v>43.4</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="1">
         <v>80</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" s="1">
         <v>43.4</v>
       </c>
-      <c r="AZ5">
-        <v>79.8</v>
+      <c r="AZ5" s="1">
+        <v>80.099999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:56">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>43.7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>80.599999999999994</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>39</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>82.7</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="1">
         <v>40.4</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="1">
         <v>81.7</v>
       </c>
     </row>
     <row r="7" spans="1:56">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>37</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>84.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="AW1:AX1"/>
@@ -1244,9 +1252,18 @@
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/单塔单扇换扇数据.xlsx
+++ b/单塔单扇换扇数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/单塔单扇换扇测试/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918FDB75-CE37-F146-873E-A2DB41C73A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B358A1-A9C6-554E-97DE-4E8E24C2E608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{10F4D5F3-4416-8E43-9DDA-1A21806B9106}"/>
   </bookViews>
@@ -524,71 +524,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB0588B-AFBD-FA42-81EF-35400B7F8FED}">
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:EX7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY1:AZ1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="56" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="19" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" style="1" customWidth="1"/>
+    <col min="21" max="55" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2" t="s">
@@ -596,140 +597,140 @@
       </c>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AR1" s="2"/>
       <c r="AS1" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV1" s="2"/>
       <c r="AW1" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AZ1" s="2"/>
       <c r="BA1" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="BB1" s="2"/>
       <c r="BC1" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="BD1" s="2"/>
     </row>
     <row r="2" spans="1:56">
       <c r="A2" s="1">
-        <v>63.6</v>
+        <v>47.7</v>
       </c>
       <c r="B2" s="1">
-        <v>75.900000000000006</v>
+        <v>78.3</v>
       </c>
       <c r="C2" s="1">
-        <v>41.5</v>
+        <v>45.7</v>
       </c>
       <c r="D2" s="1">
-        <v>81</v>
+        <v>79.2</v>
       </c>
       <c r="E2" s="1">
-        <v>41.8</v>
+        <v>44.5</v>
       </c>
       <c r="F2" s="1">
-        <v>81</v>
+        <v>79.8</v>
       </c>
       <c r="G2" s="1">
-        <v>55.1</v>
+        <v>56.7</v>
       </c>
       <c r="H2" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="I2" s="1">
+        <v>65.2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>76</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>79.3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="O2" s="1">
+        <v>60.3</v>
+      </c>
+      <c r="P2" s="1">
+        <v>76.3</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>56</v>
+      </c>
+      <c r="R2" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="S2" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="T2" s="1">
         <v>77.900000000000006</v>
       </c>
-      <c r="I2" s="1">
-        <v>61.4</v>
-      </c>
-      <c r="J2" s="1">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="K2" s="1">
-        <v>58.4</v>
-      </c>
-      <c r="L2" s="1">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="M2" s="1">
-        <v>54.5</v>
-      </c>
-      <c r="N2" s="1">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="O2" s="1">
-        <v>47.7</v>
-      </c>
-      <c r="P2" s="1">
-        <v>78.3</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>49.7</v>
-      </c>
-      <c r="R2" s="1">
-        <v>78.5</v>
-      </c>
-      <c r="S2" s="1">
-        <v>60.3</v>
-      </c>
-      <c r="T2" s="1">
-        <v>76.3</v>
-      </c>
       <c r="U2" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="V2" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="W2" s="1">
+        <v>55.2</v>
+      </c>
+      <c r="X2" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="Y2" s="1">
         <v>53.5</v>
       </c>
-      <c r="V2" s="1">
-        <v>78</v>
-      </c>
-      <c r="W2" s="1">
-        <v>45.7</v>
-      </c>
-      <c r="X2" s="1">
-        <v>79.2</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>59.5</v>
-      </c>
       <c r="Z2" s="1">
-        <v>77</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="AA2" s="1">
         <v>54.1</v>
@@ -738,168 +739,168 @@
         <v>77.5</v>
       </c>
       <c r="AC2" s="1">
-        <v>52.3</v>
+        <v>46.9</v>
       </c>
       <c r="AD2" s="1">
-        <v>78</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="AE2" s="1">
         <v>53.5</v>
       </c>
       <c r="AF2" s="1">
-        <v>77.400000000000006</v>
+        <v>78</v>
       </c>
       <c r="AG2" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>77</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>78</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>58.4</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="AY2" s="1">
         <v>41.6</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AZ2" s="1">
         <v>80.8</v>
       </c>
-      <c r="AI2" s="1">
-        <v>56</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>45.1</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>79.8</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>49.5</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>56.7</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>55.2</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>50.3</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>46.9</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>44.5</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>79.8</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>65.2</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>76</v>
-      </c>
       <c r="BA2" s="1">
-        <v>54.3</v>
+        <v>41.5</v>
       </c>
       <c r="BB2" s="1">
-        <v>77.3</v>
+        <v>81</v>
       </c>
       <c r="BC2" s="1">
-        <v>45.2</v>
+        <v>41.8</v>
       </c>
       <c r="BD2" s="1">
-        <v>79.3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:56">
       <c r="A3" s="1">
-        <v>60.8</v>
+        <v>44.3</v>
       </c>
       <c r="B3" s="1">
-        <v>76.400000000000006</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1">
-        <v>37.200000000000003</v>
+        <v>41.4</v>
       </c>
       <c r="D3" s="1">
-        <v>84.9</v>
+        <v>80.5</v>
       </c>
       <c r="E3" s="1">
-        <v>38.5</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="F3" s="1">
-        <v>83</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="G3" s="1">
-        <v>51.7</v>
+        <v>53</v>
       </c>
       <c r="H3" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>76.3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>43</v>
+      </c>
+      <c r="L3" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>46</v>
+      </c>
+      <c r="N3" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="P3" s="1">
+        <v>76.7</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="S3" s="1">
+        <v>50</v>
+      </c>
+      <c r="T3" s="1">
         <v>78.5</v>
       </c>
-      <c r="I3" s="1">
-        <v>60</v>
-      </c>
-      <c r="J3" s="1">
-        <v>76.7</v>
-      </c>
-      <c r="K3" s="1">
-        <v>57</v>
-      </c>
-      <c r="L3" s="1">
-        <v>77.3</v>
-      </c>
-      <c r="M3" s="1">
-        <v>50</v>
-      </c>
-      <c r="N3" s="1">
-        <v>78.5</v>
-      </c>
-      <c r="O3" s="1">
+      <c r="U3" s="1">
         <v>44.3</v>
       </c>
-      <c r="P3" s="1">
-        <v>79</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>46.6</v>
-      </c>
-      <c r="R3" s="1">
-        <v>79.8</v>
-      </c>
-      <c r="S3" s="1">
-        <v>58.3</v>
-      </c>
-      <c r="T3" s="1">
-        <v>76.7</v>
-      </c>
-      <c r="U3" s="1">
-        <v>50.8</v>
-      </c>
       <c r="V3" s="1">
-        <v>78.3</v>
+        <v>80</v>
       </c>
       <c r="W3" s="1">
-        <v>41.4</v>
+        <v>49.7</v>
       </c>
       <c r="X3" s="1">
-        <v>80.5</v>
+        <v>78.2</v>
       </c>
       <c r="Y3" s="1">
-        <v>56.4</v>
+        <v>48.2</v>
       </c>
       <c r="Z3" s="1">
-        <v>77.400000000000006</v>
+        <v>78.8</v>
       </c>
       <c r="AA3" s="1">
         <v>48.1</v>
@@ -908,156 +909,168 @@
         <v>78.900000000000006</v>
       </c>
       <c r="AC3" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>60</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>76.7</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>51.7</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="AU3" s="1">
         <v>45.4</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AV3" s="1">
         <v>80.2</v>
       </c>
-      <c r="AE3" s="1">
-        <v>48.2</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>78.8</v>
-      </c>
-      <c r="AG3" s="1">
+      <c r="AW3" s="1">
+        <v>57</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="AY3" s="1">
         <v>38.700000000000003</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AZ3" s="1">
         <v>82.5</v>
       </c>
-      <c r="AI3" s="1">
-        <v>50.4</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>41.3</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>44.3</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>80</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>53</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>77.3</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>49.7</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>78.2</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>46</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>79.2</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>43.6</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>80.3</v>
-      </c>
-      <c r="AW3" s="1">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="AX3" s="1">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>61.5</v>
-      </c>
-      <c r="AZ3" s="1">
-        <v>76.3</v>
-      </c>
       <c r="BA3" s="1">
-        <v>50.4</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="BB3" s="1">
-        <v>78.599999999999994</v>
+        <v>84.9</v>
       </c>
       <c r="BC3" s="1">
-        <v>43</v>
+        <v>38.5</v>
       </c>
       <c r="BD3" s="1">
-        <v>80.2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:56">
       <c r="A4" s="1">
-        <v>55.8</v>
+        <v>40.5</v>
       </c>
       <c r="B4" s="1">
-        <v>77.400000000000006</v>
+        <v>80.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="E4" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>81.5</v>
       </c>
       <c r="G4" s="1">
-        <v>44.5</v>
+        <v>48.7</v>
       </c>
       <c r="H4" s="1">
-        <v>80.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="I4" s="1">
-        <v>52.2</v>
+        <v>56.3</v>
       </c>
       <c r="J4" s="1">
-        <v>77.900000000000006</v>
+        <v>77.3</v>
       </c>
       <c r="K4" s="1">
-        <v>50.6</v>
+        <v>41.2</v>
       </c>
       <c r="L4" s="1">
-        <v>79</v>
+        <v>81.2</v>
       </c>
       <c r="M4" s="1">
+        <v>40</v>
+      </c>
+      <c r="N4" s="1">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="O4" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="P4" s="1">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="R4" s="1">
+        <v>78.8</v>
+      </c>
+      <c r="S4" s="1">
         <v>42.7</v>
       </c>
-      <c r="N4" s="1">
+      <c r="T4" s="1">
         <v>80.5</v>
       </c>
-      <c r="O4" s="1">
-        <v>40.5</v>
-      </c>
-      <c r="P4" s="1">
-        <v>80.3</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="R4" s="1">
-        <v>82.2</v>
-      </c>
-      <c r="S4" s="1">
-        <v>51.6</v>
-      </c>
-      <c r="T4" s="1">
-        <v>78</v>
-      </c>
       <c r="U4" s="1">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="V4" s="1">
-        <v>78.7</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="W4" s="1">
-        <v>40</v>
+        <v>43.2</v>
       </c>
       <c r="X4" s="1">
-        <v>81.400000000000006</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>51.9</v>
+        <v>42.4</v>
       </c>
       <c r="Z4" s="1">
-        <v>78.3</v>
+        <v>80.7</v>
       </c>
       <c r="AA4" s="1">
         <v>41.3</v>
@@ -1066,204 +1079,192 @@
         <v>81.099999999999994</v>
       </c>
       <c r="AC4" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>49</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>78.7</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>38</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="AU4" s="1">
         <v>39.4</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AV4" s="1">
         <v>82.7</v>
       </c>
-      <c r="AE4" s="1">
-        <v>42.4</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>80.7</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>48.8</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>78.8</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>38</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>82.8</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>40</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>48.7</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>43.2</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>40</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>82.3</v>
-      </c>
       <c r="AW4" s="1">
-        <v>38.5</v>
+        <v>50.6</v>
       </c>
       <c r="AX4" s="1">
-        <v>81.5</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>56.3</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>77.3</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>41.2</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>81.2</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:56">
-      <c r="A5" s="1">
+      <c r="G5" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>80</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="O5" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="R5" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="S5" s="1">
+        <v>41</v>
+      </c>
+      <c r="T5" s="1">
+        <v>81</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>43</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>80.7</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>40.1</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>81.7</v>
+      </c>
+      <c r="AO5" s="1">
         <v>50.7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="AP5" s="1">
         <v>78.400000000000006</v>
       </c>
-      <c r="G5" s="1">
-        <v>40.1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>81.7</v>
-      </c>
-      <c r="I5" s="1">
-        <v>43</v>
-      </c>
-      <c r="J5" s="1">
-        <v>80.7</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="AW5" s="1">
         <v>46</v>
       </c>
-      <c r="L5" s="1">
+      <c r="AX5" s="1">
         <v>80.599999999999994</v>
-      </c>
-      <c r="M5" s="1">
-        <v>41</v>
-      </c>
-      <c r="N5" s="1">
-        <v>81</v>
-      </c>
-      <c r="S5" s="1">
-        <v>43.3</v>
-      </c>
-      <c r="T5" s="1">
-        <v>80.2</v>
-      </c>
-      <c r="U5" s="1">
-        <v>43</v>
-      </c>
-      <c r="V5" s="1">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>45.3</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>41.6</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>80.8</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>43.4</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>80</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>43.4</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>80.099999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:56">
-      <c r="A6" s="1">
+      <c r="AG6" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>81.7</v>
+      </c>
+      <c r="AO6" s="1">
         <v>43.7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="AP6" s="1">
         <v>80.599999999999994</v>
       </c>
-      <c r="K6" s="1">
+      <c r="AW6" s="1">
         <v>39</v>
       </c>
-      <c r="L6" s="1">
+      <c r="AX6" s="1">
         <v>82.7</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>40.4</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>81.7</v>
       </c>
     </row>
     <row r="7" spans="1:56">
-      <c r="A7" s="1">
+      <c r="AO7" s="1">
         <v>37</v>
       </c>
-      <c r="B7" s="1">
+      <c r="AP7" s="1">
         <v>84.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="BA1:BB1"/>
     <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
